--- a/dataset_new_avg/result/modelselect/supremeselectModel.xlsx
+++ b/dataset_new_avg/result/modelselect/supremeselectModel.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="fl_default_of10" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="fl_default_of13" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="odl_default_of10" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="odl_default_of13" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="onos_default_of10" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="onos_default_of13" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="onos_proxyarp_of13" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="onos_stats1_of13" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="p4_default" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="fl_default_of10" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="fl_default_of13" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="odl_default_of10" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="odl_default_of13" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="onos_default_of10" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="onos_default_of13" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="onos_proxyarp_of13" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="onos_stats1_of13" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="p4_default" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
